--- a/data/ADHD_MC.xlsx
+++ b/data/ADHD_MC.xlsx
@@ -526,15 +526,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,10 +708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH16" activeCellId="0" sqref="AH16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,13 +816,13 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -923,13 +923,13 @@
       <c r="AF2" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>1.19</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>4.67</v>
       </c>
     </row>
@@ -1030,13 +1030,13 @@
       <c r="AF3" s="2" t="n">
         <v>-0.0264900662251655</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3" s="1" t="n">
         <v>-0.84</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -1137,13 +1137,13 @@
       <c r="AF4" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4" s="1" t="n">
         <v>1.31</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -1244,13 +1244,13 @@
       <c r="AF5" s="2" t="n">
         <v>3.41721854304636</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5" s="1" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>-1.27</v>
       </c>
     </row>
@@ -1351,13 +1351,13 @@
       <c r="AF6" s="2" t="n">
         <v>2.62251655629139</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AH6" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6" s="1" t="n">
         <v>-1.49</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -1458,13 +1458,13 @@
       <c r="AF7" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -1565,13 +1565,13 @@
       <c r="AF8" s="2" t="n">
         <v>3.1523178807947</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AH8" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AI8" s="1" t="n">
         <v>1.93</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>4.95</v>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="AF9" s="2" t="n">
         <v>3.81456953642384</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9" s="1" t="n">
         <v>0.88</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -1779,13 +1779,13 @@
       <c r="AF10" s="2" t="n">
         <v>1.43046357615894</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AI10" s="1" t="n">
         <v>-1.31</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1886,13 +1886,13 @@
       <c r="AF11" s="2" t="n">
         <v>1.03311258278146</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AI11" s="1" t="n">
         <v>-1.24</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -1993,13 +1993,13 @@
       <c r="AF12" s="2" t="n">
         <v>3.01986754966887</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AI12" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -2100,13 +2100,13 @@
       <c r="AF13" s="2" t="n">
         <v>1.56291390728477</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AI13" s="1" t="n">
         <v>2.24</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AJ13" s="1" t="n">
         <v>3.11</v>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
       <c r="AF14" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14" s="1" t="n">
         <v>-1.15</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2314,13 +2314,13 @@
       <c r="AF15" s="2" t="n">
         <v>2.35761589403974</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15" s="1" t="n">
         <v>2.21</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>4.89</v>
       </c>
     </row>
@@ -2421,13 +2421,13 @@
       <c r="AF16" s="2" t="n">
         <v>3.41721854304636</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AH16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AI16" s="1" t="n">
         <v>-0.73</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -2528,13 +2528,13 @@
       <c r="AF17" s="2" t="n">
         <v>1.03311258278146</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AH17" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AI17" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>2.63</v>
       </c>
     </row>
@@ -2635,13 +2635,13 @@
       <c r="AF18" s="2" t="n">
         <v>0.768211920529802</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AH18" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AI18" s="1" t="n">
         <v>-0.81</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -2742,13 +2742,13 @@
       <c r="AF19" s="2" t="n">
         <v>1.96026490066225</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AH19" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AI19" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -2849,13 +2849,13 @@
       <c r="AF20" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AH20" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AI20" s="1" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2956,13 +2956,13 @@
       <c r="AF21" s="2" t="n">
         <v>1.6953642384106</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AH21" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AI21" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>3.84</v>
       </c>
     </row>
@@ -3063,13 +3063,13 @@
       <c r="AF22" s="2" t="n">
         <v>4.34437086092715</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AH22" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AI22" s="1" t="n">
         <v>1.71</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AJ22" s="1" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -3170,13 +3170,13 @@
       <c r="AF23" s="2" t="n">
         <v>1.96026490066225</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AH23" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AI23" s="1" t="n">
         <v>-0.53</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AJ23" s="1" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3277,13 +3277,13 @@
       <c r="AF24" s="2" t="n">
         <v>-0.95364238410596</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AH24" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AI24" s="1" t="n">
         <v>3.68</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AJ24" s="1" t="n">
         <v>9.38</v>
       </c>
     </row>
@@ -3384,13 +3384,13 @@
       <c r="AF25" s="2" t="n">
         <v>6.06622516556291</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AH25" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AI25" s="1" t="n">
         <v>1.06</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AJ25" s="1" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -3491,13 +3491,13 @@
       <c r="AF26" s="2" t="n">
         <v>4.60927152317881</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AH26" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AI26" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AJ26" s="1" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -3598,13 +3598,13 @@
       <c r="AF27" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AH27" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AI27" s="1" t="n">
         <v>-1.37</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AJ27" s="1" t="n">
         <v>-1.85</v>
       </c>
     </row>
@@ -3705,13 +3705,13 @@
       <c r="AF28" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AH28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AI28" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AJ28" s="1" t="n">
         <v>4.35</v>
       </c>
     </row>
@@ -3812,13 +3812,13 @@
       <c r="AF29" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AH29" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AI29" s="1" t="n">
         <v>-0.52</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AJ29" s="1" t="n">
         <v>-1.15</v>
       </c>
     </row>
@@ -3919,13 +3919,13 @@
       <c r="AF30" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AH30" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AI30" s="1" t="n">
         <v>1.93</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AJ30" s="1" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -4026,13 +4026,13 @@
       <c r="AF31" s="2" t="n">
         <v>3.94701986754967</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AH31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AI31" s="1" t="n">
         <v>0.76</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AJ31" s="1" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -4133,13 +4133,13 @@
       <c r="AF32" s="2" t="n">
         <v>3.90232558139535</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AH32" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AI32" s="1" t="n">
         <v>-1.49</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AJ32" s="1" t="n">
         <v>-1.53</v>
       </c>
     </row>
@@ -4240,13 +4240,13 @@
       <c r="AF33" s="2" t="n">
         <v>0.87906976744186</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AH33" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AI33" s="1" t="n">
         <v>-0.63</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AJ33" s="1" t="n">
         <v>-1.94</v>
       </c>
     </row>
@@ -4347,13 +4347,13 @@
       <c r="AF34" s="2" t="n">
         <v>2.04186046511628</v>
       </c>
-      <c r="AH34" s="0" t="n">
+      <c r="AH34" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI34" s="0" t="n">
+      <c r="AI34" s="1" t="n">
         <v>-0.84</v>
       </c>
-      <c r="AJ34" s="0" t="n">
+      <c r="AJ34" s="1" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -4454,13 +4454,13 @@
       <c r="AF35" s="2" t="n">
         <v>0.995348837209302</v>
       </c>
-      <c r="AH35" s="0" t="n">
+      <c r="AH35" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI35" s="0" t="n">
+      <c r="AI35" s="1" t="n">
         <v>-1.02</v>
       </c>
-      <c r="AJ35" s="0" t="n">
+      <c r="AJ35" s="1" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -4561,13 +4561,13 @@
       <c r="AF36" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
-      <c r="AH36" s="0" t="n">
+      <c r="AH36" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AI36" s="0" t="n">
+      <c r="AI36" s="1" t="n">
         <v>-0.66</v>
       </c>
-      <c r="AJ36" s="0" t="n">
+      <c r="AJ36" s="1" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -4668,13 +4668,13 @@
       <c r="AF37" s="2" t="n">
         <v>12.7395348837209</v>
       </c>
-      <c r="AH37" s="0" t="n">
+      <c r="AH37" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI37" s="0" t="n">
+      <c r="AI37" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="AJ37" s="0" t="n">
+      <c r="AJ37" s="1" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -4775,13 +4775,13 @@
       <c r="AF38" s="2" t="n">
         <v>-0.0511627906976746</v>
       </c>
-      <c r="AH38" s="0" t="n">
+      <c r="AH38" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AI38" s="0" t="n">
+      <c r="AI38" s="1" t="n">
         <v>1.56</v>
       </c>
-      <c r="AJ38" s="0" t="n">
+      <c r="AJ38" s="1" t="n">
         <v>3.73</v>
       </c>
     </row>
@@ -4882,13 +4882,13 @@
       <c r="AF39" s="2" t="n">
         <v>0.181395348837209</v>
       </c>
-      <c r="AH39" s="0" t="n">
+      <c r="AH39" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AI39" s="0" t="n">
+      <c r="AI39" s="1" t="n">
         <v>-1.67</v>
       </c>
-      <c r="AJ39" s="0" t="n">
+      <c r="AJ39" s="1" t="n">
         <v>-1.85</v>
       </c>
     </row>
@@ -4989,13 +4989,13 @@
       <c r="AF40" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
-      <c r="AH40" s="0" t="n">
+      <c r="AH40" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="AI40" s="0" t="n">
+      <c r="AI40" s="1" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AJ40" s="0" t="n">
+      <c r="AJ40" s="1" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -5096,13 +5096,13 @@
       <c r="AF41" s="2" t="n">
         <v>4.01860465116279</v>
       </c>
-      <c r="AH41" s="0" t="n">
+      <c r="AH41" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AI41" s="0" t="n">
+      <c r="AI41" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AJ41" s="0" t="n">
+      <c r="AJ41" s="1" t="n">
         <v>1.39</v>
       </c>
     </row>
@@ -5203,13 +5203,13 @@
       <c r="AF42" s="2" t="n">
         <v>5.64651162790698</v>
       </c>
-      <c r="AH42" s="0" t="n">
+      <c r="AH42" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AI42" s="0" t="n">
+      <c r="AI42" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="AJ42" s="0" t="n">
+      <c r="AJ42" s="1" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -5310,13 +5310,13 @@
       <c r="AF43" s="2" t="n">
         <v>-0.0264900662251655</v>
       </c>
-      <c r="AH43" s="0" t="n">
+      <c r="AH43" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AI43" s="0" t="n">
+      <c r="AI43" s="1" t="n">
         <v>-0.81</v>
       </c>
-      <c r="AJ43" s="0" t="n">
+      <c r="AJ43" s="1" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -5417,13 +5417,13 @@
       <c r="AF44" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
-      <c r="AH44" s="0" t="n">
+      <c r="AH44" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="AI44" s="0" t="n">
+      <c r="AI44" s="1" t="n">
         <v>1.11</v>
       </c>
-      <c r="AJ44" s="0" t="n">
+      <c r="AJ44" s="1" t="n">
         <v>7.15</v>
       </c>
     </row>
@@ -5524,13 +5524,13 @@
       <c r="AF45" s="2" t="n">
         <v>3.68211920529801</v>
       </c>
-      <c r="AH45" s="0" t="n">
+      <c r="AH45" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI45" s="0" t="n">
+      <c r="AI45" s="1" t="n">
         <v>0.78</v>
       </c>
-      <c r="AJ45" s="0" t="n">
+      <c r="AJ45" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -5631,13 +5631,13 @@
       <c r="AF46" s="2" t="n">
         <v>1.82781456953642</v>
       </c>
-      <c r="AH46" s="0" t="n">
+      <c r="AH46" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI46" s="0" t="n">
+      <c r="AI46" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="AJ46" s="0" t="n">
+      <c r="AJ46" s="1" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -5738,13 +5738,13 @@
       <c r="AF47" s="2" t="n">
         <v>0.370860927152318</v>
       </c>
-      <c r="AH47" s="0" t="n">
+      <c r="AH47" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="AI47" s="0" t="n">
+      <c r="AI47" s="1" t="n">
         <v>-0.76</v>
       </c>
-      <c r="AJ47" s="0" t="n">
+      <c r="AJ47" s="1" t="n">
         <v>-1.13</v>
       </c>
     </row>
@@ -5845,13 +5845,13 @@
       <c r="AF48" s="2" t="n">
         <v>3.1523178807947</v>
       </c>
-      <c r="AH48" s="0" t="n">
+      <c r="AH48" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AI48" s="0" t="n">
+      <c r="AI48" s="1" t="n">
         <v>9.32</v>
       </c>
-      <c r="AJ48" s="0" t="n">
+      <c r="AJ48" s="1" t="n">
         <v>49.97</v>
       </c>
     </row>
@@ -5952,13 +5952,13 @@
       <c r="AF49" s="2" t="n">
         <v>2.35761589403974</v>
       </c>
-      <c r="AH49" s="0" t="n">
+      <c r="AH49" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AI49" s="0" t="n">
+      <c r="AI49" s="1" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AJ49" s="0" t="n">
+      <c r="AJ49" s="1" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6059,13 +6059,13 @@
       <c r="AF50" s="2" t="n">
         <v>5.00662251655629</v>
       </c>
-      <c r="AH50" s="0" t="n">
+      <c r="AH50" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI50" s="0" t="n">
+      <c r="AI50" s="1" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AJ50" s="0" t="n">
+      <c r="AJ50" s="1" t="n">
         <v>-1.7</v>
       </c>
     </row>
@@ -6166,13 +6166,13 @@
       <c r="AF51" s="2" t="n">
         <v>0.900662251655629</v>
       </c>
-      <c r="AH51" s="0" t="n">
+      <c r="AH51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI51" s="0" t="n">
+      <c r="AI51" s="1" t="n">
         <v>1.05</v>
       </c>
-      <c r="AJ51" s="0" t="n">
+      <c r="AJ51" s="1" t="n">
         <v>4.98</v>
       </c>
     </row>
@@ -6273,13 +6273,13 @@
       <c r="AF52" s="2" t="n">
         <v>4.0794701986755</v>
       </c>
-      <c r="AH52" s="0" t="n">
+      <c r="AH52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AI52" s="0" t="n">
+      <c r="AI52" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AJ52" s="0" t="n">
+      <c r="AJ52" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -6380,13 +6380,13 @@
       <c r="AF53" s="2" t="n">
         <v>-0.291390728476821</v>
       </c>
-      <c r="AH53" s="0" t="n">
+      <c r="AH53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI53" s="0" t="n">
+      <c r="AI53" s="1" t="n">
         <v>4.16</v>
       </c>
-      <c r="AJ53" s="0" t="n">
+      <c r="AJ53" s="1" t="n">
         <v>20.55</v>
       </c>
     </row>
@@ -6487,13 +6487,13 @@
       <c r="AF54" s="2" t="n">
         <v>2.88741721854305</v>
       </c>
-      <c r="AH54" s="0" t="n">
+      <c r="AH54" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="AI54" s="0" t="n">
+      <c r="AI54" s="1" t="n">
         <v>-0.64</v>
       </c>
-      <c r="AJ54" s="0" t="n">
+      <c r="AJ54" s="1" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -6594,13 +6594,13 @@
       <c r="AF55" s="2" t="n">
         <v>6.19867549668874</v>
       </c>
-      <c r="AH55" s="0" t="n">
+      <c r="AH55" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI55" s="0" t="n">
+      <c r="AI55" s="1" t="n">
         <v>3.51</v>
       </c>
-      <c r="AJ55" s="0" t="n">
+      <c r="AJ55" s="1" t="n">
         <v>29.48</v>
       </c>
     </row>
@@ -6701,13 +6701,13 @@
       <c r="AF56" s="2" t="n">
         <v>-1.74834437086093</v>
       </c>
-      <c r="AH56" s="0" t="n">
+      <c r="AH56" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AI56" s="0" t="n">
+      <c r="AI56" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="AJ56" s="0" t="n">
+      <c r="AJ56" s="1" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -6808,13 +6808,13 @@
       <c r="AF57" s="2" t="n">
         <v>0.503311258278146</v>
       </c>
-      <c r="AH57" s="0" t="n">
+      <c r="AH57" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI57" s="0" t="n">
+      <c r="AI57" s="1" t="n">
         <v>-0.78</v>
       </c>
-      <c r="AJ57" s="0" t="n">
+      <c r="AJ57" s="1" t="n">
         <v>-1.36</v>
       </c>
     </row>
@@ -6915,13 +6915,13 @@
       <c r="AF58" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
-      <c r="AH58" s="0" t="n">
+      <c r="AH58" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AI58" s="0" t="n">
+      <c r="AI58" s="1" t="n">
         <v>-0.59</v>
       </c>
-      <c r="AJ58" s="0" t="n">
+      <c r="AJ58" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -7022,13 +7022,13 @@
       <c r="AF59" s="2" t="n">
         <v>2.62251655629139</v>
       </c>
-      <c r="AH59" s="0" t="n">
+      <c r="AH59" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AI59" s="0" t="n">
+      <c r="AI59" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AJ59" s="0" t="n">
+      <c r="AJ59" s="1" t="n">
         <v>999</v>
       </c>
     </row>
@@ -7129,13 +7129,13 @@
       <c r="AF60" s="2" t="n">
         <v>3.81456953642384</v>
       </c>
-      <c r="AH60" s="0" t="n">
+      <c r="AH60" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI60" s="0" t="n">
+      <c r="AI60" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="AJ60" s="0" t="n">
+      <c r="AJ60" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -7236,13 +7236,13 @@
       <c r="AF61" s="2" t="n">
         <v>1.82781456953642</v>
       </c>
-      <c r="AH61" s="0" t="n">
+      <c r="AH61" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AI61" s="0" t="n">
+      <c r="AI61" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="AJ61" s="0" t="n">
+      <c r="AJ61" s="1" t="n">
         <v>2.14</v>
       </c>
     </row>
@@ -7343,13 +7343,13 @@
       <c r="AF62" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
-      <c r="AH62" s="0" t="n">
+      <c r="AH62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="AI62" s="0" t="n">
+      <c r="AI62" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="AJ62" s="0" t="n">
+      <c r="AJ62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7450,13 +7450,13 @@
       <c r="AF63" s="2" t="n">
         <v>1.43046357615894</v>
       </c>
-      <c r="AH63" s="0" t="n">
+      <c r="AH63" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI63" s="0" t="n">
+      <c r="AI63" s="1" t="n">
         <v>-1.46</v>
       </c>
-      <c r="AJ63" s="0" t="n">
+      <c r="AJ63" s="1" t="n">
         <v>-2.62</v>
       </c>
     </row>
@@ -7557,13 +7557,13 @@
       <c r="AF64" s="2" t="n">
         <v>0.635761589403974</v>
       </c>
-      <c r="AH64" s="0" t="n">
+      <c r="AH64" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AI64" s="0" t="n">
+      <c r="AI64" s="1" t="n">
         <v>5.88</v>
       </c>
-      <c r="AJ64" s="0" t="n">
+      <c r="AJ64" s="1" t="n">
         <v>49.97</v>
       </c>
     </row>
@@ -7664,13 +7664,13 @@
       <c r="AF65" s="2" t="n">
         <v>3.01986754966887</v>
       </c>
-      <c r="AH65" s="0" t="n">
+      <c r="AH65" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AI65" s="0" t="n">
+      <c r="AI65" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AJ65" s="0" t="n">
+      <c r="AJ65" s="1" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -7771,13 +7771,13 @@
       <c r="AF66" s="2" t="n">
         <v>4.25116279069768</v>
       </c>
-      <c r="AH66" s="0" t="n">
+      <c r="AH66" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI66" s="0" t="n">
+      <c r="AI66" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ66" s="0" t="n">
+      <c r="AJ66" s="1" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -7878,13 +7878,13 @@
       <c r="AF67" s="2" t="n">
         <v>-0.167441860465116</v>
       </c>
-      <c r="AH67" s="0" t="n">
+      <c r="AH67" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI67" s="0" t="n">
+      <c r="AI67" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AJ67" s="0" t="n">
+      <c r="AJ67" s="1" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -7985,13 +7985,13 @@
       <c r="AF68" s="2" t="n">
         <v>2.73953488372093</v>
       </c>
-      <c r="AH68" s="0" t="n">
+      <c r="AH68" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="AI68" s="0" t="n">
+      <c r="AI68" s="1" t="n">
         <v>2.49</v>
       </c>
-      <c r="AJ68" s="0" t="n">
+      <c r="AJ68" s="1" t="n">
         <v>8.24</v>
       </c>
     </row>
@@ -8092,13 +8092,13 @@
       <c r="AF69" s="2" t="n">
         <v>-1.33023255813954</v>
       </c>
-      <c r="AH69" s="0" t="n">
+      <c r="AH69" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI69" s="0" t="n">
+      <c r="AI69" s="1" t="n">
         <v>1.78</v>
       </c>
-      <c r="AJ69" s="0" t="n">
+      <c r="AJ69" s="1" t="n">
         <v>5.02</v>
       </c>
     </row>
@@ -8199,13 +8199,13 @@
       <c r="AF70" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
-      <c r="AH70" s="0" t="n">
+      <c r="AH70" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AI70" s="0" t="n">
+      <c r="AI70" s="1" t="n">
         <v>-0.22</v>
       </c>
-      <c r="AJ70" s="0" t="n">
+      <c r="AJ70" s="1" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -8306,13 +8306,13 @@
       <c r="AF71" s="2" t="n">
         <v>-0.516279069767442</v>
       </c>
-      <c r="AH71" s="0" t="n">
+      <c r="AH71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI71" s="0" t="n">
+      <c r="AI71" s="1" t="n">
         <v>-0.39</v>
       </c>
-      <c r="AJ71" s="0" t="n">
+      <c r="AJ71" s="1" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -8413,13 +8413,13 @@
       <c r="AF72" s="2" t="n">
         <v>2.97209302325581</v>
       </c>
-      <c r="AH72" s="0" t="n">
+      <c r="AH72" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI72" s="0" t="n">
+      <c r="AI72" s="1" t="n">
         <v>-1.07</v>
       </c>
-      <c r="AJ72" s="0" t="n">
+      <c r="AJ72" s="1" t="n">
         <v>-0.85</v>
       </c>
     </row>
@@ -8520,13 +8520,13 @@
       <c r="AF73" s="2" t="n">
         <v>3.32093023255814</v>
       </c>
-      <c r="AH73" s="0" t="n">
+      <c r="AH73" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AI73" s="0" t="n">
+      <c r="AI73" s="1" t="n">
         <v>-0.95</v>
       </c>
-      <c r="AJ73" s="0" t="n">
+      <c r="AJ73" s="1" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -8627,13 +8627,13 @@
       <c r="AF74" s="2" t="n">
         <v>2.39069767441861</v>
       </c>
-      <c r="AH74" s="0" t="n">
+      <c r="AH74" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AI74" s="0" t="n">
+      <c r="AI74" s="1" t="n">
         <v>0.37</v>
       </c>
-      <c r="AJ74" s="0" t="n">
+      <c r="AJ74" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -8734,13 +8734,13 @@
       <c r="AF75" s="2" t="n">
         <v>4.48372093023256</v>
       </c>
-      <c r="AH75" s="0" t="n">
+      <c r="AH75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AI75" s="0" t="n">
+      <c r="AI75" s="1" t="n">
         <v>-1.24</v>
       </c>
-      <c r="AJ75" s="0" t="n">
+      <c r="AJ75" s="1" t="n">
         <v>-1.04</v>
       </c>
     </row>
@@ -8841,13 +8841,13 @@
       <c r="AF76" s="2" t="n">
         <v>-0.0511627906976746</v>
       </c>
-      <c r="AH76" s="0" t="n">
+      <c r="AH76" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="AI76" s="0" t="n">
+      <c r="AI76" s="1" t="n">
         <v>1.04</v>
       </c>
-      <c r="AJ76" s="0" t="n">
+      <c r="AJ76" s="1" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -8948,13 +8948,13 @@
       <c r="AF77" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
-      <c r="AH77" s="0" t="n">
+      <c r="AH77" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="AI77" s="0" t="n">
+      <c r="AI77" s="1" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AJ77" s="0" t="n">
+      <c r="AJ77" s="1" t="n">
         <v>2.76</v>
       </c>
     </row>
@@ -9055,13 +9055,13 @@
       <c r="AF78" s="2" t="n">
         <v>999</v>
       </c>
-      <c r="AH78" s="0" t="n">
+      <c r="AH78" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="AI78" s="0" t="n">
+      <c r="AI78" s="1" t="n">
         <v>0.23</v>
       </c>
-      <c r="AJ78" s="0" t="n">
+      <c r="AJ78" s="1" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -9162,13 +9162,13 @@
       <c r="AF79" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AH79" s="0" t="n">
+      <c r="AH79" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AI79" s="0" t="n">
+      <c r="AI79" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="AJ79" s="0" t="n">
+      <c r="AJ79" s="1" t="n">
         <v>999</v>
       </c>
     </row>
@@ -9269,13 +9269,13 @@
       <c r="AF80" s="2" t="n">
         <v>-1.67906976744186</v>
       </c>
-      <c r="AH80" s="0" t="n">
+      <c r="AH80" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AI80" s="0" t="n">
+      <c r="AI80" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="AJ80" s="0" t="n">
+      <c r="AJ80" s="1" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -9376,13 +9376,13 @@
       <c r="AF81" s="2" t="n">
         <v>2.38156359393232</v>
       </c>
-      <c r="AH81" s="0" t="n">
+      <c r="AH81" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AI81" s="0" t="n">
+      <c r="AI81" s="1" t="n">
         <v>1.42</v>
       </c>
-      <c r="AJ81" s="0" t="n">
+      <c r="AJ81" s="1" t="n">
         <v>3.14</v>
       </c>
     </row>
@@ -9483,13 +9483,13 @@
       <c r="AF82" s="2" t="n">
         <v>-0.283720930232558</v>
       </c>
-      <c r="AH82" s="0" t="n">
+      <c r="AH82" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="AI82" s="0" t="n">
+      <c r="AI82" s="1" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AJ82" s="0" t="n">
+      <c r="AJ82" s="1" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
       <c r="D83" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F83" s="2" t="n">
@@ -9590,13 +9590,13 @@
       <c r="AF83" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
-      <c r="AH83" s="0" t="n">
+      <c r="AH83" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="AI83" s="0" t="n">
+      <c r="AI83" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="AJ83" s="0" t="n">
+      <c r="AJ83" s="1" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       <c r="D84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="2" t="n">
@@ -12050,8 +12050,14 @@
         <v>0.646511627906977</v>
       </c>
     </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="1" t="n">
+        <f aca="false">E107+E80</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E3 E85:E108">
+  <conditionalFormatting sqref="E1:E3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
@@ -12111,7 +12117,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E84">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>2</formula>
     </cfRule>

--- a/data/ADHD_MC.xlsx
+++ b/data/ADHD_MC.xlsx
@@ -708,15 +708,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ112"/>
+  <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,13 +817,13 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -923,13 +924,13 @@
       <c r="AF2" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
+      <c r="AG2" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH2" s="1" t="n">
-        <v>51</v>
+        <v>1.19</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
         <v>4.67</v>
       </c>
     </row>
@@ -1030,13 +1031,13 @@
       <c r="AF3" s="2" t="n">
         <v>-0.0264900662251655</v>
       </c>
+      <c r="AG3" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="AH3" s="1" t="n">
-        <v>54</v>
+        <v>-0.84</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -1137,13 +1138,13 @@
       <c r="AF4" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
+      <c r="AG4" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH4" s="1" t="n">
-        <v>51</v>
+        <v>1.31</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -1244,13 +1245,13 @@
       <c r="AF5" s="2" t="n">
         <v>3.41721854304636</v>
       </c>
+      <c r="AG5" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="AH5" s="1" t="n">
-        <v>48</v>
+        <v>-0.4</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
         <v>-1.27</v>
       </c>
     </row>
@@ -1351,13 +1352,13 @@
       <c r="AF6" s="2" t="n">
         <v>2.62251655629139</v>
       </c>
+      <c r="AG6" s="1" t="n">
+        <v>55</v>
+      </c>
       <c r="AH6" s="1" t="n">
-        <v>55</v>
+        <v>-1.49</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -1458,13 +1459,13 @@
       <c r="AF7" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
+      <c r="AG7" s="1" t="n">
+        <v>42</v>
+      </c>
       <c r="AH7" s="1" t="n">
-        <v>42</v>
+        <v>2.32</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AJ7" s="1" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -1565,13 +1566,13 @@
       <c r="AF8" s="2" t="n">
         <v>3.1523178807947</v>
       </c>
+      <c r="AG8" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH8" s="1" t="n">
-        <v>47</v>
+        <v>1.93</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
         <v>4.95</v>
       </c>
     </row>
@@ -1672,13 +1673,13 @@
       <c r="AF9" s="2" t="n">
         <v>3.81456953642384</v>
       </c>
+      <c r="AG9" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="AH9" s="1" t="n">
-        <v>54</v>
+        <v>0.88</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -1779,13 +1780,13 @@
       <c r="AF10" s="2" t="n">
         <v>1.43046357615894</v>
       </c>
+      <c r="AG10" s="1" t="n">
+        <v>58</v>
+      </c>
       <c r="AH10" s="1" t="n">
-        <v>58</v>
+        <v>-1.31</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="AJ10" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1886,13 +1887,13 @@
       <c r="AF11" s="2" t="n">
         <v>1.03311258278146</v>
       </c>
+      <c r="AG11" s="1" t="n">
+        <v>53</v>
+      </c>
       <c r="AH11" s="1" t="n">
-        <v>53</v>
+        <v>-1.24</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="AJ11" s="1" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -1993,13 +1994,13 @@
       <c r="AF12" s="2" t="n">
         <v>3.01986754966887</v>
       </c>
+      <c r="AG12" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH12" s="1" t="n">
-        <v>50</v>
+        <v>0.45</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AJ12" s="1" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -2100,13 +2101,13 @@
       <c r="AF13" s="2" t="n">
         <v>1.56291390728477</v>
       </c>
+      <c r="AG13" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH13" s="1" t="n">
-        <v>47</v>
+        <v>2.24</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AJ13" s="1" t="n">
         <v>3.11</v>
       </c>
     </row>
@@ -2207,13 +2208,13 @@
       <c r="AF14" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
+      <c r="AG14" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH14" s="1" t="n">
-        <v>49</v>
+        <v>-1.15</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="AJ14" s="1" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2314,13 +2315,13 @@
       <c r="AF15" s="2" t="n">
         <v>2.35761589403974</v>
       </c>
+      <c r="AG15" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="AH15" s="1" t="n">
-        <v>45</v>
+        <v>2.21</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AJ15" s="1" t="n">
         <v>4.89</v>
       </c>
     </row>
@@ -2421,13 +2422,13 @@
       <c r="AF16" s="2" t="n">
         <v>3.41721854304636</v>
       </c>
+      <c r="AG16" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH16" s="1" t="n">
-        <v>52</v>
+        <v>-0.73</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="AJ16" s="1" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -2528,13 +2529,13 @@
       <c r="AF17" s="2" t="n">
         <v>1.03311258278146</v>
       </c>
+      <c r="AG17" s="1" t="n">
+        <v>41</v>
+      </c>
       <c r="AH17" s="1" t="n">
-        <v>41</v>
+        <v>2.32</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
         <v>2.63</v>
       </c>
     </row>
@@ -2635,13 +2636,13 @@
       <c r="AF18" s="2" t="n">
         <v>0.768211920529802</v>
       </c>
+      <c r="AG18" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH18" s="1" t="n">
-        <v>52</v>
+        <v>-0.81</v>
       </c>
       <c r="AI18" s="1" t="n">
-        <v>-0.81</v>
-      </c>
-      <c r="AJ18" s="1" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -2742,13 +2743,13 @@
       <c r="AF19" s="2" t="n">
         <v>1.96026490066225</v>
       </c>
+      <c r="AG19" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH19" s="1" t="n">
-        <v>50</v>
+        <v>0.33</v>
       </c>
       <c r="AI19" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -2849,13 +2850,13 @@
       <c r="AF20" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
+      <c r="AG20" s="1" t="n">
+        <v>53</v>
+      </c>
       <c r="AH20" s="1" t="n">
-        <v>53</v>
+        <v>-0.06</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="AJ20" s="1" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2956,13 +2957,13 @@
       <c r="AF21" s="2" t="n">
         <v>1.6953642384106</v>
       </c>
+      <c r="AG21" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH21" s="1" t="n">
-        <v>52</v>
+        <v>0.41</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
         <v>3.84</v>
       </c>
     </row>
@@ -3063,13 +3064,13 @@
       <c r="AF22" s="2" t="n">
         <v>4.34437086092715</v>
       </c>
+      <c r="AG22" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="AH22" s="1" t="n">
-        <v>46</v>
+        <v>1.71</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AJ22" s="1" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -3170,13 +3171,13 @@
       <c r="AF23" s="2" t="n">
         <v>1.96026490066225</v>
       </c>
+      <c r="AG23" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH23" s="1" t="n">
-        <v>52</v>
+        <v>-0.53</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="AJ23" s="1" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3277,13 +3278,13 @@
       <c r="AF24" s="2" t="n">
         <v>-0.95364238410596</v>
       </c>
+      <c r="AG24" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH24" s="1" t="n">
-        <v>49</v>
+        <v>3.68</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AJ24" s="1" t="n">
         <v>9.38</v>
       </c>
     </row>
@@ -3384,13 +3385,13 @@
       <c r="AF25" s="2" t="n">
         <v>6.06622516556291</v>
       </c>
+      <c r="AG25" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="AH25" s="1" t="n">
-        <v>44</v>
+        <v>1.06</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AJ25" s="1" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -3491,13 +3492,13 @@
       <c r="AF26" s="2" t="n">
         <v>4.60927152317881</v>
       </c>
+      <c r="AG26" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH26" s="1" t="n">
-        <v>47</v>
+        <v>1.9</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ26" s="1" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -3598,13 +3599,13 @@
       <c r="AF27" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
+      <c r="AG27" s="1" t="n">
+        <v>59</v>
+      </c>
       <c r="AH27" s="1" t="n">
-        <v>59</v>
+        <v>-1.37</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>-1.37</v>
-      </c>
-      <c r="AJ27" s="1" t="n">
         <v>-1.85</v>
       </c>
     </row>
@@ -3705,13 +3706,13 @@
       <c r="AF28" s="2" t="n">
         <v>2.09271523178808</v>
       </c>
+      <c r="AG28" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH28" s="1" t="n">
-        <v>47</v>
+        <v>1.9</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ28" s="1" t="n">
         <v>4.35</v>
       </c>
     </row>
@@ -3812,13 +3813,13 @@
       <c r="AF29" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
+      <c r="AG29" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="AH29" s="1" t="n">
-        <v>46</v>
+        <v>-0.52</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
         <v>-1.15</v>
       </c>
     </row>
@@ -3919,13 +3920,13 @@
       <c r="AF30" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
+      <c r="AG30" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH30" s="1" t="n">
-        <v>49</v>
+        <v>1.93</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AJ30" s="1" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -4026,13 +4027,13 @@
       <c r="AF31" s="2" t="n">
         <v>3.94701986754967</v>
       </c>
+      <c r="AG31" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH31" s="1" t="n">
-        <v>47</v>
+        <v>0.76</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AJ31" s="1" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -4133,13 +4134,13 @@
       <c r="AF32" s="2" t="n">
         <v>3.90232558139535</v>
       </c>
+      <c r="AG32" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH32" s="1" t="n">
-        <v>47</v>
+        <v>-1.49</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="AJ32" s="1" t="n">
         <v>-1.53</v>
       </c>
     </row>
@@ -4240,13 +4241,13 @@
       <c r="AF33" s="2" t="n">
         <v>0.87906976744186</v>
       </c>
+      <c r="AG33" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="AH33" s="1" t="n">
-        <v>48</v>
+        <v>-0.63</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="AJ33" s="1" t="n">
         <v>-1.94</v>
       </c>
     </row>
@@ -4347,13 +4348,13 @@
       <c r="AF34" s="2" t="n">
         <v>2.04186046511628</v>
       </c>
+      <c r="AG34" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH34" s="1" t="n">
-        <v>50</v>
+        <v>-0.84</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>-0.84</v>
-      </c>
-      <c r="AJ34" s="1" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -4454,13 +4455,13 @@
       <c r="AF35" s="2" t="n">
         <v>0.995348837209302</v>
       </c>
+      <c r="AG35" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH35" s="1" t="n">
-        <v>51</v>
+        <v>-1.02</v>
       </c>
       <c r="AI35" s="1" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="AJ35" s="1" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -4561,13 +4562,13 @@
       <c r="AF36" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
+      <c r="AG36" s="1" t="n">
+        <v>42</v>
+      </c>
       <c r="AH36" s="1" t="n">
-        <v>42</v>
+        <v>-0.66</v>
       </c>
       <c r="AI36" s="1" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="AJ36" s="1" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -4668,13 +4669,13 @@
       <c r="AF37" s="2" t="n">
         <v>12.7395348837209</v>
       </c>
+      <c r="AG37" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH37" s="1" t="n">
-        <v>47</v>
+        <v>1.07</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AJ37" s="1" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -4775,13 +4776,13 @@
       <c r="AF38" s="2" t="n">
         <v>-0.0511627906976746</v>
       </c>
+      <c r="AG38" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="AH38" s="1" t="n">
-        <v>44</v>
+        <v>1.56</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AJ38" s="1" t="n">
         <v>3.73</v>
       </c>
     </row>
@@ -4882,13 +4883,13 @@
       <c r="AF39" s="2" t="n">
         <v>0.181395348837209</v>
       </c>
+      <c r="AG39" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="AH39" s="1" t="n">
-        <v>56</v>
+        <v>-1.67</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="AJ39" s="1" t="n">
         <v>-1.85</v>
       </c>
     </row>
@@ -4989,13 +4990,13 @@
       <c r="AF40" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
+      <c r="AG40" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="AH40" s="1" t="n">
-        <v>54</v>
+        <v>-0.56</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.56</v>
-      </c>
-      <c r="AJ40" s="1" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -5096,13 +5097,13 @@
       <c r="AF41" s="2" t="n">
         <v>4.01860465116279</v>
       </c>
+      <c r="AG41" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="AH41" s="1" t="n">
-        <v>45</v>
+        <v>-0.05</v>
       </c>
       <c r="AI41" s="1" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="AJ41" s="1" t="n">
         <v>1.39</v>
       </c>
     </row>
@@ -5203,13 +5204,13 @@
       <c r="AF42" s="2" t="n">
         <v>5.64651162790698</v>
       </c>
+      <c r="AG42" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="AH42" s="1" t="n">
-        <v>48</v>
+        <v>1.27</v>
       </c>
       <c r="AI42" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AJ42" s="1" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -5310,13 +5311,13 @@
       <c r="AF43" s="2" t="n">
         <v>-0.0264900662251655</v>
       </c>
+      <c r="AG43" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="AH43" s="1" t="n">
-        <v>44</v>
+        <v>-0.81</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>-0.81</v>
-      </c>
-      <c r="AJ43" s="1" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -5417,13 +5418,13 @@
       <c r="AF44" s="2" t="n">
         <v>1.29801324503311</v>
       </c>
+      <c r="AG44" s="1" t="n">
+        <v>70</v>
+      </c>
       <c r="AH44" s="1" t="n">
-        <v>70</v>
+        <v>1.11</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AJ44" s="1" t="n">
         <v>7.15</v>
       </c>
     </row>
@@ -5524,13 +5525,13 @@
       <c r="AF45" s="2" t="n">
         <v>3.68211920529801</v>
       </c>
+      <c r="AG45" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH45" s="1" t="n">
-        <v>50</v>
+        <v>0.78</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AJ45" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -5631,13 +5632,13 @@
       <c r="AF46" s="2" t="n">
         <v>1.82781456953642</v>
       </c>
+      <c r="AG46" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH46" s="1" t="n">
-        <v>52</v>
+        <v>0.49</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AJ46" s="1" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -5738,13 +5739,13 @@
       <c r="AF47" s="2" t="n">
         <v>0.370860927152318</v>
       </c>
+      <c r="AG47" s="1" t="n">
+        <v>53</v>
+      </c>
       <c r="AH47" s="1" t="n">
-        <v>53</v>
+        <v>-0.76</v>
       </c>
       <c r="AI47" s="1" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="AJ47" s="1" t="n">
         <v>-1.13</v>
       </c>
     </row>
@@ -5845,13 +5846,13 @@
       <c r="AF48" s="2" t="n">
         <v>3.1523178807947</v>
       </c>
+      <c r="AG48" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="AH48" s="1" t="n">
-        <v>44</v>
+        <v>9.32</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="AJ48" s="1" t="n">
         <v>49.97</v>
       </c>
     </row>
@@ -5952,13 +5953,13 @@
       <c r="AF49" s="2" t="n">
         <v>2.35761589403974</v>
       </c>
+      <c r="AG49" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="AH49" s="1" t="n">
-        <v>45</v>
+        <v>-0.06</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="AJ49" s="1" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6059,13 +6060,13 @@
       <c r="AF50" s="2" t="n">
         <v>5.00662251655629</v>
       </c>
+      <c r="AG50" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH50" s="1" t="n">
-        <v>51</v>
+        <v>-0.9</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AJ50" s="1" t="n">
         <v>-1.7</v>
       </c>
     </row>
@@ -6166,13 +6167,13 @@
       <c r="AF51" s="2" t="n">
         <v>0.900662251655629</v>
       </c>
+      <c r="AG51" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH51" s="1" t="n">
-        <v>50</v>
+        <v>1.05</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ51" s="1" t="n">
         <v>4.98</v>
       </c>
     </row>
@@ -6273,13 +6274,13 @@
       <c r="AF52" s="2" t="n">
         <v>4.0794701986755</v>
       </c>
+      <c r="AG52" s="1" t="n">
+        <v>41</v>
+      </c>
       <c r="AH52" s="1" t="n">
-        <v>41</v>
+        <v>0.8</v>
       </c>
       <c r="AI52" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ52" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -6380,13 +6381,13 @@
       <c r="AF53" s="2" t="n">
         <v>-0.291390728476821</v>
       </c>
+      <c r="AG53" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH53" s="1" t="n">
-        <v>50</v>
+        <v>4.16</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AJ53" s="1" t="n">
         <v>20.55</v>
       </c>
     </row>
@@ -6487,13 +6488,13 @@
       <c r="AF54" s="2" t="n">
         <v>2.88741721854305</v>
       </c>
+      <c r="AG54" s="1" t="n">
+        <v>70</v>
+      </c>
       <c r="AH54" s="1" t="n">
-        <v>70</v>
+        <v>-0.64</v>
       </c>
       <c r="AI54" s="1" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="AJ54" s="1" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -6594,13 +6595,13 @@
       <c r="AF55" s="2" t="n">
         <v>6.19867549668874</v>
       </c>
+      <c r="AG55" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH55" s="1" t="n">
-        <v>49</v>
+        <v>3.51</v>
       </c>
       <c r="AI55" s="1" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AJ55" s="1" t="n">
         <v>29.48</v>
       </c>
     </row>
@@ -6701,13 +6702,13 @@
       <c r="AF56" s="2" t="n">
         <v>-1.74834437086093</v>
       </c>
+      <c r="AG56" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="AH56" s="1" t="n">
-        <v>48</v>
+        <v>0.29</v>
       </c>
       <c r="AI56" s="1" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AJ56" s="1" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -6808,13 +6809,13 @@
       <c r="AF57" s="2" t="n">
         <v>0.503311258278146</v>
       </c>
+      <c r="AG57" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH57" s="1" t="n">
-        <v>51</v>
+        <v>-0.78</v>
       </c>
       <c r="AI57" s="1" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="AJ57" s="1" t="n">
         <v>-1.36</v>
       </c>
     </row>
@@ -6915,13 +6916,13 @@
       <c r="AF58" s="2" t="n">
         <v>3.28476821192053</v>
       </c>
+      <c r="AG58" s="1" t="n">
+        <v>55</v>
+      </c>
       <c r="AH58" s="1" t="n">
-        <v>55</v>
+        <v>-0.59</v>
       </c>
       <c r="AI58" s="1" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="AJ58" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -7022,13 +7023,13 @@
       <c r="AF59" s="2" t="n">
         <v>2.62251655629139</v>
       </c>
+      <c r="AG59" s="1" t="n">
+        <v>31</v>
+      </c>
       <c r="AH59" s="1" t="n">
-        <v>31</v>
+        <v>999</v>
       </c>
       <c r="AI59" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ59" s="1" t="n">
         <v>999</v>
       </c>
     </row>
@@ -7129,13 +7130,13 @@
       <c r="AF60" s="2" t="n">
         <v>3.81456953642384</v>
       </c>
+      <c r="AG60" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH60" s="1" t="n">
-        <v>47</v>
+        <v>0.2</v>
       </c>
       <c r="AI60" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ60" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -7236,13 +7237,13 @@
       <c r="AF61" s="2" t="n">
         <v>1.82781456953642</v>
       </c>
+      <c r="AG61" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="AH61" s="1" t="n">
-        <v>56</v>
+        <v>0.59</v>
       </c>
       <c r="AI61" s="1" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AJ61" s="1" t="n">
         <v>2.14</v>
       </c>
     </row>
@@ -7343,13 +7344,13 @@
       <c r="AF62" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
+      <c r="AG62" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="AH62" s="1" t="n">
-        <v>52</v>
+        <v>0.46</v>
       </c>
       <c r="AI62" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AJ62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7450,13 +7451,13 @@
       <c r="AF63" s="2" t="n">
         <v>1.43046357615894</v>
       </c>
+      <c r="AG63" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH63" s="1" t="n">
-        <v>51</v>
+        <v>-1.46</v>
       </c>
       <c r="AI63" s="1" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="AJ63" s="1" t="n">
         <v>-2.62</v>
       </c>
     </row>
@@ -7557,13 +7558,13 @@
       <c r="AF64" s="2" t="n">
         <v>0.635761589403974</v>
       </c>
+      <c r="AG64" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="AH64" s="1" t="n">
-        <v>48</v>
+        <v>5.88</v>
       </c>
       <c r="AI64" s="1" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="AJ64" s="1" t="n">
         <v>49.97</v>
       </c>
     </row>
@@ -7664,13 +7665,13 @@
       <c r="AF65" s="2" t="n">
         <v>3.01986754966887</v>
       </c>
+      <c r="AG65" s="1" t="n">
+        <v>36</v>
+      </c>
       <c r="AH65" s="1" t="n">
-        <v>36</v>
+        <v>-0.05</v>
       </c>
       <c r="AI65" s="1" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="AJ65" s="1" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -7771,13 +7772,13 @@
       <c r="AF66" s="2" t="n">
         <v>4.25116279069768</v>
       </c>
+      <c r="AG66" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH66" s="1" t="n">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="AI66" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ66" s="1" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -7878,13 +7879,13 @@
       <c r="AF67" s="2" t="n">
         <v>-0.167441860465116</v>
       </c>
+      <c r="AG67" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH67" s="1" t="n">
-        <v>51</v>
+        <v>-0.05</v>
       </c>
       <c r="AI67" s="1" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="AJ67" s="1" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -7985,13 +7986,13 @@
       <c r="AF68" s="2" t="n">
         <v>2.73953488372093</v>
       </c>
+      <c r="AG68" s="1" t="n">
+        <v>39</v>
+      </c>
       <c r="AH68" s="1" t="n">
-        <v>39</v>
+        <v>2.49</v>
       </c>
       <c r="AI68" s="1" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AJ68" s="1" t="n">
         <v>8.24</v>
       </c>
     </row>
@@ -8092,13 +8093,13 @@
       <c r="AF69" s="2" t="n">
         <v>-1.33023255813954</v>
       </c>
+      <c r="AG69" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH69" s="1" t="n">
-        <v>51</v>
+        <v>1.78</v>
       </c>
       <c r="AI69" s="1" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AJ69" s="1" t="n">
         <v>5.02</v>
       </c>
     </row>
@@ -8199,13 +8200,13 @@
       <c r="AF70" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
+      <c r="AG70" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="AH70" s="1" t="n">
-        <v>47</v>
+        <v>-0.22</v>
       </c>
       <c r="AI70" s="1" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="AJ70" s="1" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -8306,13 +8307,13 @@
       <c r="AF71" s="2" t="n">
         <v>-0.516279069767442</v>
       </c>
+      <c r="AG71" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH71" s="1" t="n">
-        <v>50</v>
+        <v>-0.39</v>
       </c>
       <c r="AI71" s="1" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="AJ71" s="1" t="n">
         <v>0.94</v>
       </c>
     </row>
@@ -8413,13 +8414,13 @@
       <c r="AF72" s="2" t="n">
         <v>2.97209302325581</v>
       </c>
+      <c r="AG72" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH72" s="1" t="n">
-        <v>50</v>
+        <v>-1.07</v>
       </c>
       <c r="AI72" s="1" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="AJ72" s="1" t="n">
         <v>-0.85</v>
       </c>
     </row>
@@ -8520,13 +8521,13 @@
       <c r="AF73" s="2" t="n">
         <v>3.32093023255814</v>
       </c>
+      <c r="AG73" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AH73" s="1" t="n">
-        <v>51</v>
+        <v>-0.95</v>
       </c>
       <c r="AI73" s="1" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="AJ73" s="1" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -8627,13 +8628,13 @@
       <c r="AF74" s="2" t="n">
         <v>2.39069767441861</v>
       </c>
+      <c r="AG74" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="AH74" s="1" t="n">
-        <v>49</v>
+        <v>0.37</v>
       </c>
       <c r="AI74" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AJ74" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -8734,13 +8735,13 @@
       <c r="AF75" s="2" t="n">
         <v>4.48372093023256</v>
       </c>
+      <c r="AG75" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="AH75" s="1" t="n">
-        <v>56</v>
+        <v>-1.24</v>
       </c>
       <c r="AI75" s="1" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="AJ75" s="1" t="n">
         <v>-1.04</v>
       </c>
     </row>
@@ -8841,13 +8842,13 @@
       <c r="AF76" s="2" t="n">
         <v>-0.0511627906976746</v>
       </c>
+      <c r="AG76" s="1" t="n">
+        <v>59</v>
+      </c>
       <c r="AH76" s="1" t="n">
-        <v>59</v>
+        <v>1.04</v>
       </c>
       <c r="AI76" s="1" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AJ76" s="1" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -8948,13 +8949,13 @@
       <c r="AF77" s="2" t="n">
         <v>1.57674418604651</v>
       </c>
+      <c r="AG77" s="1" t="n">
+        <v>34</v>
+      </c>
       <c r="AH77" s="1" t="n">
-        <v>34</v>
+        <v>-0.47</v>
       </c>
       <c r="AI77" s="1" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="AJ77" s="1" t="n">
         <v>2.76</v>
       </c>
     </row>
@@ -9055,13 +9056,13 @@
       <c r="AF78" s="2" t="n">
         <v>999</v>
       </c>
+      <c r="AG78" s="1" t="n">
+        <v>35</v>
+      </c>
       <c r="AH78" s="1" t="n">
-        <v>35</v>
+        <v>0.23</v>
       </c>
       <c r="AI78" s="1" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AJ78" s="1" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -9162,13 +9163,13 @@
       <c r="AF79" s="2" t="n">
         <v>-0.4</v>
       </c>
+      <c r="AG79" s="1" t="n">
+        <v>999</v>
+      </c>
       <c r="AH79" s="1" t="n">
         <v>999</v>
       </c>
       <c r="AI79" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="AJ79" s="1" t="n">
         <v>999</v>
       </c>
     </row>
@@ -9269,13 +9270,13 @@
       <c r="AF80" s="2" t="n">
         <v>-1.67906976744186</v>
       </c>
+      <c r="AG80" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="AH80" s="1" t="n">
-        <v>45</v>
+        <v>0.02</v>
       </c>
       <c r="AI80" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AJ80" s="1" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -9376,13 +9377,13 @@
       <c r="AF81" s="2" t="n">
         <v>2.38156359393232</v>
       </c>
+      <c r="AG81" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="AH81" s="1" t="n">
-        <v>50</v>
+        <v>1.42</v>
       </c>
       <c r="AI81" s="1" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AJ81" s="1" t="n">
         <v>3.14</v>
       </c>
     </row>
@@ -9483,13 +9484,13 @@
       <c r="AF82" s="2" t="n">
         <v>-0.283720930232558</v>
       </c>
+      <c r="AG82" s="1" t="n">
+        <v>59</v>
+      </c>
       <c r="AH82" s="1" t="n">
-        <v>59</v>
+        <v>-0.06</v>
       </c>
       <c r="AI82" s="1" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="AJ82" s="1" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -9590,13 +9591,13 @@
       <c r="AF83" s="2" t="n">
         <v>1.16556291390729</v>
       </c>
+      <c r="AG83" s="1" t="n">
+        <v>39</v>
+      </c>
       <c r="AH83" s="1" t="n">
-        <v>39</v>
+        <v>1.07</v>
       </c>
       <c r="AI83" s="1" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AJ83" s="1" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -12048,12 +12049,6 @@
       </c>
       <c r="AF108" s="2" t="n">
         <v>0.646511627906977</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="1" t="n">
-        <f aca="false">E107+E80</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/ADHD_MC.xlsx
+++ b/data/ADHD_MC.xlsx
@@ -25,6 +25,9 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">DX</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDADE</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">SEXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DX</t>
   </si>
   <si>
     <t xml:space="preserve">GAI</t>
@@ -710,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG:AI"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,13 +832,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -1045,16 +1045,16 @@
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
@@ -1152,16 +1152,16 @@
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
@@ -1259,16 +1259,16 @@
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
@@ -1366,16 +1366,16 @@
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -1473,16 +1473,16 @@
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -1580,16 +1580,16 @@
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
@@ -1687,17 +1687,17 @@
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>5</v>
@@ -1794,16 +1794,16 @@
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -1901,16 +1901,16 @@
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
@@ -2008,16 +2008,16 @@
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
@@ -2115,17 +2115,17 @@
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2222,17 +2222,17 @@
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
+      <c r="E15" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>16</v>
@@ -2329,16 +2329,16 @@
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
@@ -2436,16 +2436,16 @@
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="D17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
@@ -2543,16 +2543,16 @@
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
@@ -2650,16 +2650,16 @@
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="D19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
@@ -2757,16 +2757,16 @@
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -2864,17 +2864,17 @@
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="D21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>2</v>
@@ -2971,17 +2971,17 @@
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="D22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>7</v>
@@ -3078,16 +3078,16 @@
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="D23" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
@@ -3185,16 +3185,16 @@
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="D24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
@@ -3292,16 +3292,16 @@
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="D25" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="n">
@@ -3399,16 +3399,16 @@
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="D26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
@@ -3506,16 +3506,16 @@
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="D27" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="n">
@@ -3613,16 +3613,16 @@
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="D28" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
@@ -3720,17 +3720,17 @@
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="D29" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
+      <c r="E29" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>15</v>
@@ -3827,17 +3827,17 @@
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="D30" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
+      <c r="E30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
@@ -3934,16 +3934,16 @@
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="D31" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="n">
@@ -4041,16 +4041,16 @@
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="D32" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
@@ -4148,16 +4148,16 @@
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="D33" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="n">
@@ -4255,16 +4255,16 @@
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="D34" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
@@ -4362,16 +4362,16 @@
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="D35" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
@@ -4469,16 +4469,16 @@
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="D36" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
@@ -4576,16 +4576,16 @@
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="D37" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
@@ -4683,16 +4683,16 @@
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="D38" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
@@ -4790,16 +4790,16 @@
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="D39" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
@@ -4897,16 +4897,16 @@
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="D40" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
@@ -5004,16 +5004,16 @@
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="D41" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
@@ -5111,16 +5111,16 @@
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="D42" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
@@ -5218,17 +5218,17 @@
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="D43" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>1</v>
+      <c r="E43" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>15</v>
@@ -5325,17 +5325,17 @@
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="D44" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>1</v>
+      <c r="E44" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>11</v>
@@ -5432,17 +5432,17 @@
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="D45" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>1</v>
+      <c r="E45" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>1</v>
@@ -5539,17 +5539,17 @@
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="D46" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>1</v>
+      <c r="E46" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>3</v>
@@ -5647,16 +5647,16 @@
         <v>80</v>
       </c>
       <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="D47" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
@@ -5754,13 +5754,13 @@
         <v>81</v>
       </c>
       <c r="B48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="D48" s="2" t="n">
         <v>16</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>1</v>
@@ -5861,16 +5861,16 @@
         <v>82</v>
       </c>
       <c r="B49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="D49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>16</v>
@@ -5968,13 +5968,13 @@
         <v>83</v>
       </c>
       <c r="B50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="D50" s="2" t="n">
         <v>16</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>1</v>
@@ -6075,16 +6075,16 @@
         <v>84</v>
       </c>
       <c r="B51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="D51" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>15</v>
@@ -6182,16 +6182,16 @@
         <v>85</v>
       </c>
       <c r="B52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="D52" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>8</v>
@@ -6288,17 +6288,17 @@
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="D53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>1</v>
+      <c r="E53" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>5</v>
@@ -6395,17 +6395,17 @@
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="D54" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>1</v>
+      <c r="E54" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
@@ -6502,16 +6502,16 @@
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="D55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="2" t="n">
@@ -6609,17 +6609,17 @@
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="D56" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>1</v>
+      <c r="E56" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>12</v>
@@ -6716,17 +6716,17 @@
       <c r="A57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="D57" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="n">
-        <v>1</v>
+      <c r="E57" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>18</v>
@@ -6823,16 +6823,16 @@
       <c r="A58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="D58" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="n">
@@ -6930,17 +6930,17 @@
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="D59" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>1</v>
+      <c r="E59" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>7</v>
@@ -7037,16 +7037,16 @@
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="D60" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="2" t="n">
@@ -7144,17 +7144,17 @@
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="D61" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="n">
-        <v>1</v>
+      <c r="E61" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>13</v>
@@ -7251,17 +7251,17 @@
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="D62" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>1</v>
+      <c r="E62" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>9</v>
@@ -7358,16 +7358,16 @@
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="D63" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="2" t="n">
@@ -7465,17 +7465,17 @@
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="D64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3" t="n">
-        <v>1</v>
+      <c r="E64" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
@@ -7572,16 +7572,16 @@
       <c r="A65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="D65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="2" t="n">
@@ -7679,17 +7679,17 @@
       <c r="A66" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="D66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3" t="n">
-        <v>1</v>
+      <c r="E66" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>9</v>
@@ -7786,17 +7786,17 @@
       <c r="A67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="D67" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3" t="n">
-        <v>1</v>
+      <c r="E67" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>4</v>
@@ -7893,16 +7893,16 @@
       <c r="A68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="D68" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="2" t="n">
@@ -8000,16 +8000,16 @@
       <c r="A69" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="D69" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="2" t="n">
@@ -8107,16 +8107,16 @@
       <c r="A70" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="D70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="2" t="n">
@@ -8214,16 +8214,16 @@
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="D71" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="2" t="n">
@@ -8321,17 +8321,17 @@
       <c r="A72" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="D72" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3" t="n">
-        <v>1</v>
+      <c r="E72" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>14</v>
@@ -8428,16 +8428,16 @@
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="D73" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="2" t="n">
@@ -8535,16 +8535,16 @@
       <c r="A74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="D74" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="2" t="n">
@@ -8642,17 +8642,17 @@
       <c r="A75" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="D75" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>1</v>
+      <c r="E75" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
@@ -8749,16 +8749,16 @@
       <c r="A76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="D76" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="2" t="n">
@@ -8856,17 +8856,17 @@
       <c r="A77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="D77" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3" t="n">
-        <v>1</v>
+      <c r="E77" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>8</v>
@@ -8963,16 +8963,16 @@
       <c r="A78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="D78" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="2" t="n">
@@ -9070,17 +9070,17 @@
       <c r="A79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="D79" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3" t="n">
-        <v>1</v>
+      <c r="E79" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>4</v>
@@ -9177,17 +9177,17 @@
       <c r="A80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="D80" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3" t="n">
-        <v>1</v>
+      <c r="E80" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>9</v>
@@ -9284,16 +9284,16 @@
       <c r="A81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="D81" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="2" t="n">
@@ -9391,17 +9391,17 @@
       <c r="A82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="D82" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="n">
-        <v>1</v>
+      <c r="E82" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>0</v>
@@ -9499,16 +9499,16 @@
         <v>116</v>
       </c>
       <c r="B83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="D83" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E83" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>9</v>
@@ -9606,16 +9606,16 @@
         <v>117</v>
       </c>
       <c r="B84" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="D84" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E84" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>12</v>
@@ -9704,16 +9704,16 @@
         <v>118</v>
       </c>
       <c r="B85" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="D85" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D85" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E85" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>999</v>
@@ -9802,16 +9802,16 @@
         <v>119</v>
       </c>
       <c r="B86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="D86" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D86" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E86" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>3</v>
@@ -9900,16 +9900,16 @@
         <v>120</v>
       </c>
       <c r="B87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="D87" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D87" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E87" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>15</v>
@@ -9998,16 +9998,16 @@
         <v>121</v>
       </c>
       <c r="B88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="D88" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E88" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>15</v>
@@ -10096,16 +10096,16 @@
         <v>122</v>
       </c>
       <c r="B89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="D89" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E89" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>11</v>
@@ -10194,16 +10194,16 @@
         <v>123</v>
       </c>
       <c r="B90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="D90" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D90" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E90" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>17</v>
@@ -10292,16 +10292,16 @@
         <v>124</v>
       </c>
       <c r="B91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="D91" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D91" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E91" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>12</v>
@@ -10390,16 +10390,16 @@
         <v>125</v>
       </c>
       <c r="B92" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="D92" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D92" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E92" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="2" t="n">
         <v>8</v>
@@ -10488,16 +10488,16 @@
         <v>126</v>
       </c>
       <c r="B93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="D93" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E93" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>17</v>
@@ -10586,16 +10586,16 @@
         <v>127</v>
       </c>
       <c r="B94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="D94" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D94" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E94" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>10</v>
@@ -10684,16 +10684,16 @@
         <v>128</v>
       </c>
       <c r="B95" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="D95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E95" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>9</v>
@@ -10782,16 +10782,16 @@
         <v>129</v>
       </c>
       <c r="B96" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="D96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E96" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>6</v>
@@ -10880,16 +10880,16 @@
         <v>130</v>
       </c>
       <c r="B97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="D97" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D97" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E97" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>17</v>
@@ -10978,16 +10978,16 @@
         <v>131</v>
       </c>
       <c r="B98" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="D98" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D98" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E98" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>9</v>
@@ -11076,16 +11076,16 @@
         <v>132</v>
       </c>
       <c r="B99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="D99" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D99" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E99" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>3</v>
@@ -11174,16 +11174,16 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="D100" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D100" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E100" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>9</v>
@@ -11272,16 +11272,16 @@
         <v>134</v>
       </c>
       <c r="B101" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="D101" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E101" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="2" t="n">
         <v>15</v>
@@ -11370,16 +11370,16 @@
         <v>135</v>
       </c>
       <c r="B102" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="D102" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E102" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="2" t="n">
         <v>4</v>
@@ -11468,16 +11468,16 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="D103" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E103" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>0</v>
@@ -11566,16 +11566,16 @@
         <v>137</v>
       </c>
       <c r="B104" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="D104" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E104" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2" t="n">
         <v>2</v>
@@ -11664,16 +11664,16 @@
         <v>138</v>
       </c>
       <c r="B105" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="D105" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D105" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E105" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>3</v>
@@ -11762,16 +11762,16 @@
         <v>139</v>
       </c>
       <c r="B106" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="D106" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D106" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E106" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>6</v>
@@ -11860,16 +11860,16 @@
         <v>140</v>
       </c>
       <c r="B107" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="D107" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E107" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>12</v>
@@ -11958,16 +11958,16 @@
         <v>141</v>
       </c>
       <c r="B108" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="D108" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E108" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>3</v>
@@ -12052,67 +12052,67 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E3">
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E15">
+  <conditionalFormatting sqref="B4:B15">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E21">
+  <conditionalFormatting sqref="B16:B21">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E46">
+  <conditionalFormatting sqref="B22:B46">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E61">
+  <conditionalFormatting sqref="B53:B61">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E64">
+  <conditionalFormatting sqref="B62:B64">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E67">
+  <conditionalFormatting sqref="B65:B67">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E72">
+  <conditionalFormatting sqref="B68:B72">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E76">
+  <conditionalFormatting sqref="B73:B76">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:E79">
+  <conditionalFormatting sqref="B77:B79">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="B80">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
+  <conditionalFormatting sqref="B81">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="B82">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>2</formula>
     </cfRule>
